--- a/media/2022-10-19_RAW_varazdin.xlsx
+++ b/media/2022-10-19_RAW_varazdin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI33"/>
+  <dimension ref="A1:AJ33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,170 +436,175 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Županija</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Grad/općina</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Broj soba</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Godina izgradnje</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Stambena površina u m2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Energetski Certifikat</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Zamjena</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Tip oglasa</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Prodavač</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>O stanu</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Vlastita šifra objekta</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Dodatna oprema prostora</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Cijena</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Naselje</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Namještenost</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Kat</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Detaljnije o kući</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Broj etaža stana</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Tip stana</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Godina zadnje adaptacije</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Ulaz</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Dostupno od</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Period zakupa</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Režije</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>tel ili mobitel</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Rezerviranih parking mjesta</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Grijanje</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Površina terase u m2</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Orijentacija</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Površina balkona u m2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Provizija</t>
         </is>
@@ -609,85 +614,85 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski plin
 </t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>3472-1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kabelska televizija
 </t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>650 €</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/smart-home-system--3-sob--stan-59-96-m2--1--kat--najam/oid/3609839</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20.08.2022</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
@@ -706,111 +711,112 @@
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve">2-2.5 sobni
 </t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>2022</v>
+      </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>pravna osoba</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lift
 </t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>s743</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
         <is>
           <t>550 €</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/stan--centar--49-91-m2/oid/3613876</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>19.10.2022</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>Potpuna</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t xml:space="preserve">1
 </t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t xml:space="preserve">Novogradnja
 </t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t xml:space="preserve">U stambenoj zgradi
 </t>
         </is>
       </c>
-      <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
@@ -823,1096 +829,1072 @@
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>2000</v>
+      </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
         <is>
           <t>199 €</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/lijepi-apartman-varazdin-28m2/oid/3015485</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>20.07.2021</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>Djelomična</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr">
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t xml:space="preserve">Poseban
 </t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>01.12.2021</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>Zasebno</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>098 1881979</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1900</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="n">
+        <v>1900</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>40,40</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski plinGradski vodovodBlizina busa
 </t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
         <is>
           <t>400 €</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/varazdin-najam-dvosobnog-stana/oid/3683715</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>11.10.2022</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>Potpuna</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t xml:space="preserve">1
 </t>
         </is>
       </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr">
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t xml:space="preserve">U kući
 </t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="X5" t="n">
+        <v>2018</v>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t xml:space="preserve">Poseban
 </t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>20.10.2022</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>Zasebno</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>0913903175 ili 042/561-319</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1
-</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="inlineStr">
         <is>
           <t xml:space="preserve">Etažno plinsko centralno
 </t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>wens.nekretnine@gmail.com</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski plinGradski vodovodLiftNovogradnja
 </t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
         <is>
           <t xml:space="preserve">GaražaGrađevinska dozvolaKlima uređajUporabna dozvolaVlasnički listProtuprovalna vrataVanjsko ne-natkriveno mjesto
 </t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>550 €</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/novouredjeni-stan-u-novoj-niskoenergetskoj-zgradi/oid/3606980</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>17.08.2022</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>Potpuna</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t xml:space="preserve">1
 </t>
         </is>
       </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr">
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t xml:space="preserve">U stambenoj zgradi
 </t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="X6" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t xml:space="preserve">Zajednički
 </t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>18.08.2022</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
+      <c r="AA6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>Zasebno</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>098503302</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1
-</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AD6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="inlineStr">
         <is>
           <t xml:space="preserve">Etažno plinsko centralno
 </t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>mmrenim@gmail.com</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>3,47</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sjever
 </t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t xml:space="preserve">2-2.5 sobni
 </t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">B
 </t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>pravna osoba</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
         <is>
           <t>ID-834</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
         <is>
           <t>600 €</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/2---soban-stan-sa-spremistem-i-parkirnim-mjestom----/oid/3683472</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>19.10.2022</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>Gornje Grabanice</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr">
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t xml:space="preserve">U stambenoj zgradi
 </t>
         </is>
       </c>
-      <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1
-</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="n">
+        <v>1</v>
+      </c>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="n">
+        <v>2008</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">B
 </t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t xml:space="preserve">Telefonska linijaGradska kanalizacijaGradski plinGradski vodovodLiftNovogradnjaBlizina busaBlizina vlaka
 </t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
         <is>
           <t xml:space="preserve">GaražaKabelska televizijaKlima uređajPortafonProtuprovalna vrata
 </t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>466 €</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/iznajmljujemo-dvosoban-stan-49-m2-u-varazdinu-kompletno-namjesten-parkirno-mjesto-u-podzemnoj-garazi-novija-gradnja/oid/3159296</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>25.10.2021</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
         <is>
           <t>Potpuna</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t xml:space="preserve">6
 </t>
         </is>
       </c>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr">
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t xml:space="preserve">U stambenoj zgradi
 </t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="X8" t="n">
+        <v>2008</v>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t xml:space="preserve">Poseban
 </t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>08.11.2021</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AA8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>Zasebno</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>0998007393</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr">
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr">
         <is>
           <t xml:space="preserve">Etažno plinsko centralno
 </t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>nkoscak36@gmail.com</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t xml:space="preserve">ZapadSjever
 </t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>56,22</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski plinGradski vodovodLiftNovogradnja
 </t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
         <is>
           <t xml:space="preserve">Građevinska dozvolaKlima uređajPortafon
 </t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>500 €</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/stan-varazdin-grabanice-zadarska-ulica/oid/3692275</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>17.10.2022</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>Grabanica</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>Potpuna</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t xml:space="preserve">1
 </t>
         </is>
       </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr">
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t xml:space="preserve">U stambenoj zgradi
 </t>
         </is>
       </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr">
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr">
         <is>
           <t xml:space="preserve">Poseban
 </t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>01.12.2022</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
+      <c r="AA9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>Zasebno</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>091 5568575   091 3915003</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1
-</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AD9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE9" t="inlineStr">
         <is>
           <t xml:space="preserve">Etažno plinsko centralno
 </t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr">
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr">
         <is>
           <t xml:space="preserve">Istok
 </t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>4,79</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Ludbreg</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="n">
+        <v>2008</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski plinGradski vodovodBlizina busa
 </t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
         <is>
           <t>0,00 €</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/stan-apartman-botivo-u-ludbregu/oid/3422117</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>06.04.2022</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>Ludbreg</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>Potpuna</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t xml:space="preserve">1
 </t>
         </is>
       </c>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr">
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="n">
+        <v>2021</v>
+      </c>
+      <c r="Y10" t="inlineStr">
         <is>
           <t xml:space="preserve">Poseban
 </t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>Zasebno</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>095 197 3165</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr">
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr">
         <is>
           <t xml:space="preserve">Etažno plinsko centralno
 </t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>davor.janicar@gmail.com</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t xml:space="preserve">Jug
 </t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski plin
 </t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>3517-1</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t xml:space="preserve">Kabelska televizija
 </t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>521 €</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/smart-home-system--2-sob--stan-52-13-m2--prizemlje--najam/oid/3662623</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>27.09.2022</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -1931,253 +1913,253 @@
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1967</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="n">
+        <v>1967</v>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>72,50</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t xml:space="preserve">Telefonska linijaGradska kanalizacijaGradski plinGradski vodovod
 </t>
         </is>
       </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
         <is>
           <t xml:space="preserve">ADSLGrađevinska dozvolaKabelska televizijaKlima uređajPortafonUporabna dozvolaVlasnički listBesplatni javni parking
 </t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>400 €</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/stan-u-varazdinu-banfica-71-5-m2/oid/3091554</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>11.09.2021</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>Potpuna</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t xml:space="preserve">3
 </t>
         </is>
       </c>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr">
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t xml:space="preserve">U stambenoj zgradi
 </t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
+      <c r="X12" t="n">
+        <v>2021</v>
+      </c>
+      <c r="Y12" t="inlineStr">
         <is>
           <t xml:space="preserve">Poseban
 </t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr">
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr">
         <is>
           <t>0993837428</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr">
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr">
         <is>
           <t xml:space="preserve">Etažno plinsko centralno
 </t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>nslezak@gmail.com</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr">
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr">
         <is>
           <t xml:space="preserve">JugSjever
 </t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
+      <c r="AI12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t xml:space="preserve">3-3.5 sobni
 </t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>2022</v>
+      </c>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>pravna osoba</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t xml:space="preserve">Lift
 </t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>s739</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr">
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
         <is>
           <t>650 €</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/stan--centar--62-80-m2/oid/3605076</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>19.10.2022</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>Potpuna</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr">
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr">
         <is>
           <t xml:space="preserve">Novogradnja
 </t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t xml:space="preserve">U stambenoj zgradi
 </t>
         </is>
       </c>
-      <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
@@ -2190,404 +2172,393 @@
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="inlineStr"/>
       <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t xml:space="preserve">2-2.5 sobni
 </t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
         <is>
           <t>ID-329</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr">
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
         <is>
           <t>450 €</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/najam---60-m2-stan-u-kuci/oid/3132052</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>19.10.2022</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>Štuk</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr">
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr">
         <is>
           <t xml:space="preserve">Dvoetažni
 </t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t xml:space="preserve">U kući
 </t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr"/>
+      <c r="X14" t="n">
+        <v>2021</v>
+      </c>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2
-</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="n">
+        <v>2</v>
+      </c>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="inlineStr"/>
       <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">A+
 </t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski plinGradski vodovodLiftNovogradnja
 </t>
         </is>
       </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
         <is>
           <t xml:space="preserve">Klima uređajPortafonProtuprovalna vrataBesplatni javni parking
 </t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>500 €</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/stan-varazdin-grabanica/oid/3547808</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>02.07.2022</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>Grabanica</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>Djelomična</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t xml:space="preserve">1
 </t>
         </is>
       </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr">
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t xml:space="preserve">U stambenoj zgradi
 </t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
+      <c r="X15" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Y15" t="inlineStr">
         <is>
           <t xml:space="preserve">Poseban
 </t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>15.09.2022</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
+      <c r="AA15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>Zasebno</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>0911267484</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1
-</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AD15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="inlineStr">
         <is>
           <t xml:space="preserve">Etažno plinsko centralnoSustav grijanja, klimatizacije i ventilacije
 </t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>klentrans@vz.t-com.hr</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr">
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t xml:space="preserve">3-3.5 sobni
 </t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
+      <c r="F16" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
         <is>
           <t>ID-695</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr">
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
         <is>
           <t>650 €</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/novogradnja-najam---3-sobni-stan---useljivo-pocetkom-kolovoza/oid/3486561</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>19.10.2022</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>Djelomična</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr">
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr">
         <is>
           <t xml:space="preserve">Novogradnja
 </t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t xml:space="preserve">U stambenoj zgradi
 </t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
+      <c r="X16" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Y16" t="inlineStr">
         <is>
           <t xml:space="preserve">Poseban
 </t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="inlineStr">
         <is>
           <t>Zasebno</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
@@ -2595,233 +2566,231 @@
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="inlineStr"/>
       <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Trnovec Bartolovečki</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>1975</v>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">D
 </t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr">
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
         <is>
           <t>200 €</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/stan-trnovec-bartolovecki-semovec/oid/3198593</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>20.11.2021</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>Šemovec</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>Djelomična</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t xml:space="preserve">2
 </t>
         </is>
       </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr">
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="n">
+        <v>2010</v>
+      </c>
+      <c r="Y17" t="inlineStr">
         <is>
           <t xml:space="preserve">Poseban
 </t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="Z17" t="inlineStr">
         <is>
           <t>20.11.2021</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
+      <c r="AA17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="inlineStr">
         <is>
           <t>Zasebno</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>098 859 600</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="inlineStr"/>
       <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t xml:space="preserve">3-3.5 sobni
 </t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>2022</v>
+      </c>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>pravna osoba</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t xml:space="preserve">Lift
 </t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>s739</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr">
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
         <is>
           <t>650 €</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/stan--centar--62-80-m2/oid/3605129</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>19.10.2022</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>Potpuna</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr">
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr">
         <is>
           <t xml:space="preserve">Novogradnja
 </t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t xml:space="preserve">U stambenoj zgradi
 </t>
         </is>
       </c>
-      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
@@ -2834,500 +2803,491 @@
       <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="inlineStr"/>
       <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="n">
+        <v>1968</v>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
         <is>
           <t xml:space="preserve">ADSLKlima uređaj
 </t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>466 €</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/stan-varazdin-centar-rezije-ukljucene/oid/3107140</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>22.09.2021</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>Potpuna</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t xml:space="preserve">3
 </t>
         </is>
       </c>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr">
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="n">
+        <v>2016</v>
+      </c>
+      <c r="Y19" t="inlineStr">
         <is>
           <t xml:space="preserve">Poseban
 </t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr">
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska toplana
 </t>
         </is>
       </c>
-      <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr">
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="n">
+        <v>1970</v>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">A+
 </t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr">
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
         <is>
           <t>500 €</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/stan-varazdin-centar/oid/3612415</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>21.08.2022</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>Potpuna</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t xml:space="preserve">1
 </t>
         </is>
       </c>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr">
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="n">
+        <v>2018</v>
+      </c>
+      <c r="Y20" t="inlineStr">
         <is>
           <t xml:space="preserve">Poseban
 </t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB20" t="inlineStr">
         <is>
           <t>Zasebno</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
+      <c r="AC20" t="inlineStr">
         <is>
           <t>0996599342</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="inlineStr"/>
       <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="n">
+        <v>1997</v>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">D
 </t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski plinBlizina busaBlizina vlaka
 </t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>1234</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr">
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
         <is>
           <t>400 €</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/stan-63m2-trosobni-varazdin-centar/oid/3268654</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>08.01.2022</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>Potpuna</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t xml:space="preserve">Visoko prizemlje
 </t>
         </is>
       </c>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr">
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="V21" t="inlineStr">
+      <c r="W21" t="inlineStr">
         <is>
           <t xml:space="preserve">U stambenoj zgradi
 </t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
+      <c r="X21" t="n">
+        <v>2017</v>
+      </c>
+      <c r="Y21" t="inlineStr">
         <is>
           <t xml:space="preserve">Poseban
 </t>
         </is>
       </c>
-      <c r="Y21" t="inlineStr">
+      <c r="Z21" t="inlineStr">
         <is>
           <t>01.02.2022</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
+      <c r="AA21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB21" t="inlineStr">
         <is>
           <t>Zasebno</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
+      <c r="AC21" t="inlineStr">
         <is>
           <t>098/734014</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1
-</t>
-        </is>
-      </c>
-      <c r="AD21" t="inlineStr">
+      <c r="AD21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE21" t="inlineStr">
         <is>
           <t xml:space="preserve">Etažno plinsko centralno
 </t>
         </is>
       </c>
-      <c r="AE21" t="inlineStr">
+      <c r="AF21" t="inlineStr">
         <is>
           <t>violeta.herc@gmail.com</t>
         </is>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr"/>
       <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski plin
 </t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>3471-1</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t xml:space="preserve">Kabelska televizija
 </t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>550 €</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/smart-home-system--2-sob--stan-47-09-m2--1--kat--najam/oid/3609838</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>20.08.2022</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
@@ -3346,111 +3306,112 @@
       <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
       <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t xml:space="preserve">2-2.5 sobni
 </t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>2022</v>
+      </c>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>pravna osoba</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t xml:space="preserve">Lift
 </t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>s743</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr">
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
         <is>
           <t>550 €</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/stan--centar--49-91-m2/oid/3613919</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>19.10.2022</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>Potpuna</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t xml:space="preserve">1
 </t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t xml:space="preserve">Novogradnja
 </t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="V23" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="V23" t="inlineStr">
+      <c r="W23" t="inlineStr">
         <is>
           <t xml:space="preserve">U stambenoj zgradi
 </t>
         </is>
       </c>
-      <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
@@ -3463,100 +3424,101 @@
       <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="inlineStr"/>
       <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>112</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski plin
 </t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>3528-1</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t xml:space="preserve">Kabelska televizijaVanjsko ne-natkriveno mjesto
 </t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>1.200 €</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/ekskluzivna-novogradnja--smart-home-system--penthouse-112-34-m2--najam/oid/3674244</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>05.10.2022</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>Potpuna</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
@@ -3573,257 +3535,252 @@
       <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
       <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="n">
+        <v>2018</v>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">B
 </t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t xml:space="preserve">Telefonska linijaGradska kanalizacijaGradski plinNovogradnjaBlizina busaBlizina vlaka
 </t>
         </is>
       </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
         <is>
           <t xml:space="preserve">ADSLKabelska televizijaRoštiljUporabna dozvolaVlasnički listProtuprovalna vrata
 </t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>226 €</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/stan-varazdin-centar/oid/3326261</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>10.02.2022</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>Potpuna</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="T25" t="inlineStr">
         <is>
           <t xml:space="preserve">Prizemlje
 </t>
         </is>
       </c>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr">
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="V25" t="inlineStr">
+      <c r="W25" t="inlineStr">
         <is>
           <t xml:space="preserve">U stambenoj zgradi
 </t>
         </is>
       </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
+      <c r="X25" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Y25" t="inlineStr">
         <is>
           <t xml:space="preserve">Poseban
 </t>
         </is>
       </c>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr">
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB25" t="inlineStr">
         <is>
           <t>Zasebno</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
+      <c r="AC25" t="inlineStr">
         <is>
           <t>091 233 8550</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1
-</t>
-        </is>
-      </c>
-      <c r="AD25" t="inlineStr">
+      <c r="AD25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE25" t="inlineStr">
         <is>
           <t xml:space="preserve">Etažno plinsko centralno
 </t>
         </is>
       </c>
-      <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr">
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr">
         <is>
           <t xml:space="preserve">JugSjever
 </t>
         </is>
       </c>
-      <c r="AH25" t="inlineStr"/>
       <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>125</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski plin
 </t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>3527-1</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t xml:space="preserve">Kabelska televizijaVanjsko ne-natkriveno mjesto
 </t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>1.400 €</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/ekskluzivna-novogradnja--smart-home-system--penthouse-125-30-m2--najam/oid/3674243</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>05.10.2022</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>Potpuna</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
@@ -3840,432 +3797,415 @@
       <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="inlineStr"/>
       <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="n">
+        <v>2015</v>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t xml:space="preserve">A+
 </t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t xml:space="preserve">Telefonska linijaGradska kanalizacijaGradski plinGradski vodovodLiftNovogradnjaBlizina vlaka
 </t>
         </is>
       </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
         <is>
           <t xml:space="preserve">ADSLGrađevinska dozvolaPortafonVlasnički listPodno grijanjeBesplatni javni parking
 </t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>500 €</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/iznajmljujem-stan-potpuno-namjesteni-novogradnja-a/oid/3406406</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>28.03.2022</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>Potpuna</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="T27" t="inlineStr">
         <is>
           <t xml:space="preserve">3
 </t>
         </is>
       </c>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="V27" t="inlineStr">
+      <c r="W27" t="inlineStr">
         <is>
           <t xml:space="preserve">U stambenoj zgradi
 </t>
         </is>
       </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
+      <c r="X27" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Y27" t="inlineStr">
         <is>
           <t xml:space="preserve">Poseban
 </t>
         </is>
       </c>
-      <c r="Y27" t="inlineStr">
+      <c r="Z27" t="inlineStr">
         <is>
           <t>01.10.2022</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr">
+      <c r="AA27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB27" t="inlineStr">
         <is>
           <t>Zasebno</t>
         </is>
       </c>
-      <c r="AB27" t="inlineStr">
+      <c r="AC27" t="inlineStr">
         <is>
           <t>0981643387</t>
         </is>
       </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1
-</t>
-        </is>
-      </c>
-      <c r="AD27" t="inlineStr">
+      <c r="AD27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE27" t="inlineStr">
         <is>
           <t xml:space="preserve">Etažno plinsko centralno
 </t>
         </is>
       </c>
-      <c r="AE27" t="inlineStr">
+      <c r="AF27" t="inlineStr">
         <is>
           <t>tihorvat@gmail.com</t>
         </is>
       </c>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr">
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr">
         <is>
           <t xml:space="preserve">Istok
 </t>
         </is>
       </c>
-      <c r="AH27" t="inlineStr">
+      <c r="AI27" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Varaždinske Toplice</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="n">
+        <v>1965</v>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>85</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski plinGradski vodovodBlizina busa
 </t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>S494</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr">
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
         <is>
           <t>400 €</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/varazdinske-toplice-3-sobni-dugorocni-najam/oid/3494581</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>24.05.2022</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>Varaždinske Toplice</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="S28" t="inlineStr">
         <is>
           <t>Potpuna</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="T28" t="inlineStr">
         <is>
           <t xml:space="preserve">Prizemlje
 </t>
         </is>
       </c>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="V28" t="inlineStr">
+      <c r="W28" t="inlineStr">
         <is>
           <t xml:space="preserve">U stambenoj zgradi
 </t>
         </is>
       </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
+      <c r="X28" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Y28" t="inlineStr">
         <is>
           <t xml:space="preserve">Poseban
 </t>
         </is>
       </c>
-      <c r="Y28" t="inlineStr">
+      <c r="Z28" t="inlineStr">
         <is>
           <t>24.05.2022</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr">
+      <c r="AA28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB28" t="inlineStr">
         <is>
           <t>Zasebno</t>
         </is>
       </c>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1
-</t>
-        </is>
-      </c>
-      <c r="AD28" t="inlineStr">
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE28" t="inlineStr">
         <is>
           <t xml:space="preserve">Etažno plinsko centralno
 </t>
         </is>
       </c>
-      <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr">
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr">
         <is>
           <t xml:space="preserve">Jug
 </t>
         </is>
       </c>
-      <c r="AH28" t="inlineStr">
+      <c r="AI28" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AI28" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
+      <c r="AJ28" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>2000</v>
+      </c>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr">
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>pravna osoba</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr">
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
         <is>
           <t>399 €</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/stan-varazdin-centar/oid/3630752</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>04.09.2022</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="S29" t="inlineStr">
         <is>
           <t>Djelomična</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr">
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Y29" t="inlineStr">
         <is>
           <t xml:space="preserve">Poseban
 </t>
         </is>
       </c>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA29" t="inlineStr">
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB29" t="inlineStr">
         <is>
           <t>Zasebno</t>
         </is>
       </c>
-      <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="inlineStr"/>
@@ -4273,585 +4213,564 @@
       <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="inlineStr"/>
       <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="n">
+        <v>2012</v>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr">
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr">
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
         <is>
           <t>383 €</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/stan-varazdin-centar/oid/3368847</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>06.03.2022</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>Potpuna</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Y30" t="inlineStr">
         <is>
           <t xml:space="preserve">Poseban
 </t>
         </is>
       </c>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA30" t="inlineStr">
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB30" t="inlineStr">
         <is>
           <t>Zasebno</t>
         </is>
       </c>
-      <c r="AB30" t="inlineStr">
+      <c r="AC30" t="inlineStr">
         <is>
           <t>091/558-3250, 098/1854-584</t>
         </is>
       </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1
-</t>
-        </is>
-      </c>
-      <c r="AD30" t="inlineStr">
+      <c r="AD30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE30" t="inlineStr">
         <is>
           <t xml:space="preserve">Etažno plinsko centralno
 </t>
         </is>
       </c>
-      <c r="AE30" t="inlineStr">
+      <c r="AF30" t="inlineStr">
         <is>
           <t>marko.borovec@gmail.com</t>
         </is>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="inlineStr"/>
       <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Varaždinske Toplice</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="n">
+        <v>2005</v>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski plinGradski vodovodBlizina busa
 </t>
         </is>
       </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
         <is>
           <t xml:space="preserve">Klima uređajPodno grijanje
 </t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>0,00 €</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/stan-varazdinske-toplice/oid/3561398</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>12.07.2022</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>Varaždinske Toplice</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
+      <c r="S31" t="inlineStr">
         <is>
           <t>Potpuna</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="T31" t="inlineStr">
         <is>
           <t xml:space="preserve">Prizemlje
 </t>
         </is>
       </c>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="V31" t="inlineStr">
+      <c r="W31" t="inlineStr">
         <is>
           <t xml:space="preserve">U stambenoj zgradi
 </t>
         </is>
       </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
+      <c r="X31" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Y31" t="inlineStr">
         <is>
           <t xml:space="preserve">Poseban
 </t>
         </is>
       </c>
-      <c r="Y31" t="inlineStr">
+      <c r="Z31" t="inlineStr">
         <is>
           <t>01.11.2022</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA31" t="inlineStr">
+      <c r="AA31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB31" t="inlineStr">
         <is>
           <t>Zasebno</t>
         </is>
       </c>
-      <c r="AB31" t="inlineStr">
+      <c r="AC31" t="inlineStr">
         <is>
           <t>0919366825</t>
         </is>
       </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1
-</t>
-        </is>
-      </c>
-      <c r="AD31" t="inlineStr">
+      <c r="AD31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE31" t="inlineStr">
         <is>
           <t xml:space="preserve">Sustav grijanja, klimatizacije i ventilacije
 </t>
         </is>
       </c>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr">
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AG31" t="inlineStr"/>
       <c r="AH31" t="inlineStr"/>
       <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr">
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>pravna osoba</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski plinGradski vodovodBlizina busaBlizina vlaka
 </t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>300541013-216</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t xml:space="preserve">ADSLVlasnički listProtuprovalna vrataVanjsko ne-natkriveno mjesto
 </t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>400 €</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="P32" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/stan-varazdin-centar/oid/3697498</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>19.10.2022</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="S32" t="inlineStr">
         <is>
           <t>Potpuna</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="T32" t="inlineStr">
         <is>
           <t xml:space="preserve">1
 </t>
         </is>
       </c>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="V32" t="inlineStr">
+      <c r="W32" t="inlineStr">
         <is>
           <t xml:space="preserve">U stambenoj zgradi
 </t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr">
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr">
         <is>
           <t xml:space="preserve">Poseban
 </t>
         </is>
       </c>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA32" t="inlineStr">
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB32" t="inlineStr">
         <is>
           <t>Zasebno</t>
         </is>
       </c>
-      <c r="AB32" t="inlineStr">
+      <c r="AC32" t="inlineStr">
         <is>
           <t>042 456 661</t>
         </is>
       </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1
-</t>
-        </is>
-      </c>
-      <c r="AD32" t="inlineStr">
+      <c r="AD32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE32" t="inlineStr">
         <is>
           <t xml:space="preserve">Etažno plinsko centralno
 </t>
         </is>
       </c>
-      <c r="AE32" t="inlineStr">
+      <c r="AF32" t="inlineStr">
         <is>
           <t>a.sumiga@remax.hr</t>
         </is>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="inlineStr"/>
       <c r="AH32" t="inlineStr"/>
       <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="n">
+        <v>1970</v>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr">
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
         <is>
           <t xml:space="preserve">ADSLRoštiljVlasnički listZidno grijanje
 </t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>159 €</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="P33" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/stan-varazdin-biskupec/oid/3360286</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
         <is>
           <t>01.03.2022</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>Biškupec</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
+      <c r="S33" t="inlineStr">
         <is>
           <t>Potpuna</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr">
+      <c r="T33" t="inlineStr">
         <is>
           <t xml:space="preserve">1
 </t>
         </is>
       </c>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr">
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="X33" t="inlineStr">
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="n">
+        <v>2010</v>
+      </c>
+      <c r="Y33" t="inlineStr">
         <is>
           <t xml:space="preserve">Poseban
 </t>
         </is>
       </c>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA33" t="inlineStr">
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB33" t="inlineStr">
         <is>
           <t>Zasebno</t>
         </is>
       </c>
-      <c r="AB33" t="inlineStr">
+      <c r="AC33" t="inlineStr">
         <is>
           <t>0912523615</t>
         </is>
       </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3
-</t>
-        </is>
-      </c>
-      <c r="AD33" t="inlineStr">
+      <c r="AD33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE33" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska toplana
 </t>
         </is>
       </c>
-      <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="inlineStr"/>
       <c r="AH33" t="inlineStr"/>
       <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
